--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADF503A-FA2D-46A6-BF24-38810AE451A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C68EF9-3D70-4A51-B172-58C5C61A2344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$C$102</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="105">
   <si>
     <t>CC</t>
   </si>
@@ -600,7 +603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -621,6 +624,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -675,9 +691,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -692,6 +705,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1039,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1034,7 +1050,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1045,7 +1061,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1056,7 +1072,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1067,7 +1083,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1078,7 +1094,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1089,7 +1105,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1100,7 +1116,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1111,7 +1127,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1122,7 +1138,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1133,7 +1149,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1144,7 +1160,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1154,8 +1170,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1165,8 +1181,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1176,8 +1192,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1187,8 +1203,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1198,8 +1214,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1209,8 +1225,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1220,8 +1236,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1231,8 +1247,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1242,8 +1258,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1254,7 +1270,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1263,7 +1281,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1298,7 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1289,7 +1309,7 @@
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1300,7 +1320,7 @@
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1311,7 +1331,7 @@
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1322,7 +1342,7 @@
       <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1333,7 +1353,7 @@
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1344,7 +1364,7 @@
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1355,7 +1375,7 @@
       <c r="B32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1366,7 +1386,7 @@
       <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1377,7 +1397,7 @@
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1388,7 +1408,7 @@
       <c r="B35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1399,12 +1419,12 @@
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1415,7 +1435,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1426,7 +1446,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1437,7 +1457,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1448,7 +1468,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1459,7 +1479,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1476,7 +1496,7 @@
       <c r="B43" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1487,7 +1507,7 @@
       <c r="B44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1498,7 +1518,7 @@
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1509,7 +1529,7 @@
       <c r="B46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1520,7 +1540,7 @@
       <c r="B47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1531,7 +1551,7 @@
       <c r="B48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1542,7 +1562,7 @@
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1553,7 +1573,7 @@
       <c r="B50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1564,7 +1584,7 @@
       <c r="B51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1575,7 +1595,7 @@
       <c r="B52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1586,7 +1606,7 @@
       <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1597,7 +1617,7 @@
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1608,7 +1628,7 @@
       <c r="B55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1619,7 +1639,7 @@
       <c r="B56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1630,7 +1650,7 @@
       <c r="B57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1641,7 +1661,7 @@
       <c r="B58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1652,7 +1672,7 @@
       <c r="B59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1663,7 +1683,7 @@
       <c r="B60" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1674,7 +1694,7 @@
       <c r="B61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1685,7 +1705,7 @@
       <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1696,7 +1716,7 @@
       <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1707,7 +1727,7 @@
       <c r="B64" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1718,7 +1738,7 @@
       <c r="B65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1729,7 +1749,7 @@
       <c r="B66" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1740,7 +1760,7 @@
       <c r="B67" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1751,7 +1771,7 @@
       <c r="B68" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1762,7 +1782,7 @@
       <c r="B69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1773,7 +1793,7 @@
       <c r="B70" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1784,7 +1804,7 @@
       <c r="B71" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1795,7 +1815,7 @@
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1806,7 +1826,7 @@
       <c r="B73" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1817,7 +1837,7 @@
       <c r="B74" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1828,7 +1848,7 @@
       <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1839,7 +1859,7 @@
       <c r="B76" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1850,7 +1870,7 @@
       <c r="B77" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1861,12 +1881,12 @@
       <c r="B78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -1877,7 +1897,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -1888,7 +1908,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -1899,7 +1919,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -1910,7 +1930,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -1921,7 +1941,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -1932,7 +1952,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -1943,7 +1963,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -1954,7 +1974,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B87" s="12" t="s">
@@ -1965,7 +1985,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -1976,7 +1996,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -1987,7 +2007,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -1998,7 +2018,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -2009,7 +2029,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -2020,7 +2040,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -2031,7 +2051,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -2042,7 +2062,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -2053,7 +2073,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -2064,7 +2084,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -2075,7 +2095,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -2086,7 +2106,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -2097,7 +2117,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -2108,7 +2128,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -2119,7 +2139,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -2130,9 +2150,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A22:A24"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C68EF9-3D70-4A51-B172-58C5C61A2344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79E6A0-4176-48B9-8DE5-80024DBA114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647FB00B-BCF4-4FFA-A767-B6B48BBB0EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F6A41-37E2-4159-B03B-E1E34C0B9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -735,7 +735,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F6A41-37E2-4159-B03B-E1E34C0B9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A58F5A95-5F88-480F-955F-8ECD07BEAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60140381-42AA-4EA5-855B-2A4B78AB457D}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,217 +53,127 @@
     <t>POTRAVINOVÉ INTOLERANCE</t>
   </si>
   <si>
+    <t>MCM6 13910 (rs182549)</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrozená intolerance laktózy. Laktáza se ve střevě netvoří. Doporučujeme omezení laktózy. </t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Vrozená částečná intolerance laktózy. Laktóza může činit potíže.</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrozená tolerance laktózy. Laktáza se ve střevě tvoří celoživotně. Není potřeba dodržovat bezlaktózovou dietu. </t>
+  </si>
+  <si>
+    <t>HLA-DQ typizace</t>
+  </si>
+  <si>
+    <t>DQ2.5</t>
+  </si>
+  <si>
+    <t>Nalezený genotyp HLA je asociovaný s rizikem celiakie. V případě trávicích potíží doporučujeme omezení lepku.</t>
+  </si>
+  <si>
+    <t>DQ8</t>
+  </si>
+  <si>
+    <t>DQ2.5/DQ2.2</t>
+  </si>
+  <si>
+    <t>DQ2.5/DQ8</t>
+  </si>
+  <si>
+    <t>DQ2.2/DQ8</t>
+  </si>
+  <si>
+    <t>DQX.5/DQ8</t>
+  </si>
+  <si>
+    <t>DQ2.2</t>
+  </si>
+  <si>
+    <t>Nalezený genotyp HLA je asociovaný s mírným rizikem celiakie. V případě trávicích potíží doporučujeme omezení lepku.</t>
+  </si>
+  <si>
+    <t>DQX.5</t>
+  </si>
+  <si>
+    <t>DQX.X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalezený genotyp HLA není asociovaný s rizikem celiakie (intolerance lepku). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalezený genotyp HLA není asociovaný s rizikem celiakie. </t>
+  </si>
+  <si>
+    <t>IBS TNF SF15 (rs4263893)</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riziko dráždivého tračníku, snížená schopnost trávit FODMAP potraviny. V případě potíží doporučena FODMAP dieta. </t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Částečné riziko dráždivého tračníku, snížená schopnost trávit FODMAP potraviny. V případě potíží doporučena FODMAP dieta. </t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Bez rizika dráždivého tračníku, schopnost trávit FODMAP potraviny není snížená.</t>
+  </si>
+  <si>
     <t>POTŘEBA VITAMÍNŮ B6/B9/B12</t>
   </si>
   <si>
-    <t>DETOXIKACE / TUKY</t>
-  </si>
-  <si>
-    <t>OSTATNÍ</t>
-  </si>
-  <si>
-    <t>SPORTOVNÍ PREDISPOZICE</t>
-  </si>
-  <si>
-    <t>OXIDATIVNÍ STRES</t>
-  </si>
-  <si>
-    <t>MCM6 13910 (rs182549)</t>
-  </si>
-  <si>
-    <t>HLA-DQ typizace</t>
-  </si>
-  <si>
-    <t>IBS TNF SF15 (rs4263893)</t>
-  </si>
-  <si>
     <t>MTHFR 677 (rs1801133)</t>
   </si>
   <si>
+    <t>Normální aktivita enzymu (100%).</t>
+  </si>
+  <si>
     <t>MTHFR 1298 (rs1801131)</t>
   </si>
   <si>
+    <t>Snížená aktivita enzymu (83%).</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Snížená aktivita enzymu (na 67%).</t>
+  </si>
+  <si>
+    <t>Snížená aktivita enzymu (na 61%).</t>
+  </si>
+  <si>
+    <t>Snížená aktivita enzymu (na 48%).</t>
+  </si>
+  <si>
+    <t>Snížená aktivita enzymu (na 25%).</t>
+  </si>
+  <si>
     <t>MTRR A66G (rs1801394 )</t>
   </si>
   <si>
-    <t>MTR A2756G (rs1805087)</t>
-  </si>
-  <si>
-    <t>GST M1</t>
-  </si>
-  <si>
-    <t>GST T1</t>
-  </si>
-  <si>
-    <t>GST P1 (Ile105Val)</t>
-  </si>
-  <si>
-    <t>ApoE</t>
-  </si>
-  <si>
-    <t>ACE I/D ( rs4343 )</t>
-  </si>
-  <si>
-    <t>ACTN3 R577X (rs1815739)</t>
-  </si>
-  <si>
-    <t>eNOS3 G894T (rs1799983)</t>
-  </si>
-  <si>
-    <t>NQO1 (rs1800566)</t>
-  </si>
-  <si>
-    <t>NRF2 (C617A)</t>
-  </si>
-  <si>
-    <t>GPX1 (rs1050450)</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>DQ2.5</t>
-  </si>
-  <si>
-    <t>DQ8</t>
-  </si>
-  <si>
-    <t>DQ2.5/DQ2.2</t>
-  </si>
-  <si>
-    <t>DQ2.5/DQ8</t>
-  </si>
-  <si>
-    <t>DQ2.2/DQ8</t>
-  </si>
-  <si>
-    <t>DQX.5/DQ8</t>
-  </si>
-  <si>
-    <t>DQ2.2</t>
-  </si>
-  <si>
-    <t>DQX.5</t>
-  </si>
-  <si>
-    <t>DQX.X</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AC</t>
+    <t>Plná aktivita enzymu MTRR. Metabolismus vitaminu B12 probíhá efektivně. Riziko zvýšeného homocysteinu je nízké.</t>
   </si>
   <si>
     <t>AG</t>
-  </si>
-  <si>
-    <t>M1*1</t>
-  </si>
-  <si>
-    <t>T1*1</t>
-  </si>
-  <si>
-    <t>M1*0</t>
-  </si>
-  <si>
-    <t>T1*0</t>
-  </si>
-  <si>
-    <t>E3/E3</t>
-  </si>
-  <si>
-    <t>E3/E4</t>
-  </si>
-  <si>
-    <t>E3/E2</t>
-  </si>
-  <si>
-    <t>E4/E2</t>
-  </si>
-  <si>
-    <t>E4/E4</t>
-  </si>
-  <si>
-    <t>E2/E2</t>
-  </si>
-  <si>
-    <t>I/I</t>
-  </si>
-  <si>
-    <t>I/D</t>
-  </si>
-  <si>
-    <t>D/D</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrozená intolerance laktózy. Laktáza se ve střevě netvoří. Doporučujeme omezení laktózy. </t>
-  </si>
-  <si>
-    <t>Vrozená částečná intolerance laktózy. Laktóza může činit potíže.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrozená tolerance laktózy. Laktáza se ve střevě tvoří celoživotně. Není potřeba dodržovat bezlaktózovou dietu. </t>
-  </si>
-  <si>
-    <t>Nalezený genotyp HLA je asociovaný s rizikem celiakie. V případě trávicích potíží doporučujeme omezení lepku.</t>
-  </si>
-  <si>
-    <t>Nalezený genotyp HLA je asociovaný s mírným rizikem celiakie. V případě trávicích potíží doporučujeme omezení lepku.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nalezený genotyp HLA není asociovaný s rizikem celiakie (intolerance lepku). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nalezený genotyp HLA není asociovaný s rizikem celiakie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riziko dráždivého tračníku, snížená schopnost trávit FODMAP potraviny. V případě potíží doporučena FODMAP dieta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Částečné riziko dráždivého tračníku, snížená schopnost trávit FODMAP potraviny. V případě potíží doporučena FODMAP dieta. </t>
-  </si>
-  <si>
-    <t>Bez rizika dráždivého tračníku, schopnost trávit FODMAP potraviny není snížená.</t>
-  </si>
-  <si>
-    <t>Normální aktivita enzymu (100%).</t>
-  </si>
-  <si>
-    <t>Snížená aktivita enzymu (83%).</t>
-  </si>
-  <si>
-    <t>Snížená aktivita enzymu (na 67%).</t>
-  </si>
-  <si>
-    <t>Snížená aktivita enzymu (na 61%).</t>
-  </si>
-  <si>
-    <t>Snížená aktivita enzymu (na 48%).</t>
-  </si>
-  <si>
-    <t>Snížená aktivita enzymu (na 25%).</t>
-  </si>
-  <si>
-    <t>Plná aktivita enzymu MTRR. Metabolismus vitaminu B12 probíhá efektivně. Riziko zvýšeného homocysteinu je nízké.</t>
   </si>
   <si>
     <t>Mírně snížená aktivita MTRR enzymu, což může ovlivnit metabolismus vitaminu B12 a
@@ -260,6 +186,9 @@
 onemocnění, zánětů, depresí i poruch nervového systému.</t>
   </si>
   <si>
+    <t>MTR A2756G (rs1805087)</t>
+  </si>
+  <si>
     <t>Plná aktivita enzymu MTR. Není zvýšené genetické riziko pro zvýšený homocystein.
 Metabolismus vitaminu B12 a homocysteinu je normální.</t>
   </si>
@@ -274,15 +203,36 @@
 současném výskytu rizikových variant v MTHFR nebo MTRR.</t>
   </si>
   <si>
+    <t>DETOXIKACE / TUKY</t>
+  </si>
+  <si>
+    <t>GST M1</t>
+  </si>
+  <si>
+    <t>M1*1</t>
+  </si>
+  <si>
     <t>Normální schopnost detoxikace. M1 gen normální, T1 gen normální, P1 gen normální metabolismus.</t>
   </si>
   <si>
+    <t>GST T1</t>
+  </si>
+  <si>
+    <t>T1*1</t>
+  </si>
+  <si>
+    <t>GST P1 (Ile105Val)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mírně snížená schopnost detoxikace. M1 gen normální, T1 gen normální, P1 gen snížený metabolismus. Potřeba glutathionu podporujícího detoxikaci buněk. </t>
   </si>
   <si>
     <t xml:space="preserve">Snížená schopnost detoxikace. M1 gen normální, T1 gen normální, P1 gen snížený metabolismus. Potřeba glutathionu podporujícího detoxikaci buněk. </t>
   </si>
   <si>
+    <t>M1*0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Snížená schopnost detoxikace. M1 gen vypnutý, T1 gen normální, P1 gen normální metabolismus. Potřeba glutathionu podporujícího detoxikaci buněk. </t>
   </si>
   <si>
@@ -292,6 +242,9 @@
     <t xml:space="preserve">Snížená schopnost detoxikace. M1 gen normální, T1 gen vypnutý, P1 gen normální metabolismus. Potřeba glutathionu podporujícího detoxikaci buněk. </t>
   </si>
   <si>
+    <t>T1*0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Snížená schopnost detoxikace. M1 gen normální, T1 gen vypnutý, P1 gen snížený metabolismus. Potřeba glutathionu podporujícího detoxikaci buněk. </t>
   </si>
   <si>
@@ -301,22 +254,55 @@
     <t xml:space="preserve">Snížená schopnost detoxikace. M1 gen vypnutý, T1 gen vypnutý, P1 gen snížený metabolismus. Potřeba glutathionu podporujícího detoxikaci buněk. </t>
   </si>
   <si>
+    <t>OSTATNÍ</t>
+  </si>
+  <si>
+    <t>ApoE</t>
+  </si>
+  <si>
+    <t>E3/E3</t>
+  </si>
+  <si>
     <t>Normální metabolismus tuků. Bez rizika aterosklerózy, Alzheimerovy choroby.</t>
   </si>
   <si>
+    <t>E3/E4</t>
+  </si>
+  <si>
     <t>Zvýšené riziko aterosklerózy a riziko výskytu Alzheimerovy choroby je zvýšené 3x</t>
   </si>
   <si>
+    <t>E3/E2</t>
+  </si>
+  <si>
     <t>Bez rizika aterosklerózy. Snížené riziko vzniku Alzheimerovy choroby. </t>
   </si>
   <si>
+    <t>E4/E2</t>
+  </si>
+  <si>
     <t>Izoforma E4 zvyšuje riziko Alzheimerovy choroby, izoforma ApoE2 jej naopak snižuje. Izoforma E2 je považovaná za neuroprotektivní a podporuje dlouhověkost. Izoforma ApoE4 i ApoE2 zvyšuje riziko mrtvice do 70 let, pak toto riziko opět snižuje.</t>
   </si>
   <si>
+    <t>E4/E4</t>
+  </si>
+  <si>
     <t>Zvýšené riziko aterosklerózy a riziko výskytu Alzheimerovy choroby je zvýšené 15x</t>
   </si>
   <si>
+    <t>E2/E2</t>
+  </si>
+  <si>
     <t>Tato izoforma není spojována se zvýšeným rizikem pro onemocnění Alzheimerova choroba ani se zvýšeným rizikem kardiovaskulárních onemocnění, mezi které patří např. ateroskleróza. Je spíše považována za protektivní před výskytem Alzheimerovy choroby. </t>
+  </si>
+  <si>
+    <t>SPORTOVNÍ PREDISPOZICE</t>
+  </si>
+  <si>
+    <t>ACE I/D ( rs4343 )</t>
+  </si>
+  <si>
+    <t>I/I</t>
   </si>
   <si>
     <t>Čistě vytrvalostní typ s optimální aerobní kapacitou. Výborná efektivita využití kyslíku
@@ -324,13 +310,22 @@
 schopnosti při dlouhodobé zátěži. Minimální riziko kardiovaskulárních onemocnění.</t>
   </si>
   <si>
+    <t>I/D</t>
+  </si>
+  <si>
     <t>Vyvážený typ kombinující výhody vytrvalosti i síly. Střední potenciál pro aerobní
 výkon i růst svalové hmoty. Dobrá regenerace při zátěži. Mírně zvýšené riziko kardiovaskulárních onemocnění.</t>
   </si>
   <si>
+    <t>D/D</t>
+  </si>
+  <si>
     <t>Silově-výbušný typ s predispozicí k rychlejšímu nárůstu svalové hmoty. Omezená aerobní kapacita. Snížená efektivita využití kyslíku. Rychlejší únava při vytrvalostní zátěži. Zvýšené riziko kardiovaskulárních onemocnění.</t>
   </si>
   <si>
+    <t>ACTN3 R577X (rs1815739)</t>
+  </si>
+  <si>
     <t>Výbušný typ s optimální funkcí rychlých svalových vláken. Vynikající predispozice pro silové a výbušné výkony. Rychlá svalová kontrakce a vysoký potenciál pro rozvoj síly. Omezená vytrvalostní kapacita.</t>
   </si>
   <si>
@@ -340,25 +335,46 @@
     <t>Vytrvalostní typ s omezenou funkcí rychlých vláken. Vynikající aerobní kapacita a odolnost vůči únavě. Omezený potenciál pro silové výkony. Lepší metabolizace tuků.</t>
   </si>
   <si>
+    <t>eNOS3 G894T (rs1799983)</t>
+  </si>
+  <si>
     <t>Optimální varianta pro cévní zdraví a vytrvalostní výkon. Normální produkce oxidu dusnatého (NO) zajišťující dobrou vaskulární elasticitu a prokrvení svalů. Vynikající okysličení tkání při zátěži. Nízké riziko kardiovaskulárních komplikací.</t>
   </si>
   <si>
+    <t>GT</t>
+  </si>
+  <si>
     <t>Mírně snížená produkce oxidu dusnatého (NO) oproti GG variantě. Střední riziko cévních komplikací. Dobrá, ale ne optimální vaskulární funkce. Mírně pomalejší regenerace po zátěži.</t>
   </si>
   <si>
     <t>Výrazně snížená produkce NO. Omezená vaskulární elasticita. Riziko horšího okysličení svalů při zátěži. Vyšší únavovost. Zvýšené riziko hypertenze a kardiovaskulárních problémů.</t>
   </si>
   <si>
+    <t>OXIDATIVNÍ STRES</t>
+  </si>
+  <si>
+    <t>NQO1 (rs1800566)</t>
+  </si>
+  <si>
     <t>Normální funkce a produkce enzymu NQO1</t>
   </si>
   <si>
     <t>Snížená aktivita enzymu NQO1, což může vést k horší ochraně buněk před oxidačním stresem. To může zvýšit riziko některých chronických onemocnění, včetně neurodegenerativních a kardiovaskulárních chorob.</t>
   </si>
   <si>
+    <t>NRF2 (C617A)</t>
+  </si>
+  <si>
     <t>Normální aktivita genu NRF2, což znamená běžnou úroveň ochrany buněk proti oxidačnímu stresu.</t>
   </si>
   <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>Snížená aktivita enzymu NRF2, nižší schopnost zvládat oxidativní stres.</t>
+  </si>
+  <si>
+    <t>GPX1 (rs1050450)</t>
   </si>
   <si>
     <t>Normální aktivita  enzymu glutathionperoxidázy 1, což znamená běžnou úroveň ochrany buněk proti oxidačnímu stresu.</t>
@@ -375,15 +391,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -433,7 +450,7 @@
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -456,44 +473,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -521,14 +538,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -556,9 +590,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,175 +618,171 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DA0FC-6425-45B8-ADF5-E8C03871A7F1}">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,13 +810,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,13 +824,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,13 +852,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,13 +880,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,13 +908,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,13 +922,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,13 +936,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,13 +950,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,13 +964,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,13 +978,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,13 +992,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,13 +1006,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,13 +1020,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,13 +1034,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,13 +1090,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,13 +1104,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,1074 +1118,1074 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
         <v>8</v>
       </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>28</v>
-      </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
         <v>109</v>
@@ -2146,13 +2193,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
         <v>110</v>
@@ -2160,20 +2207,20 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 TLP: GREEN&amp;1#_x000D_</oddHeader>
   </headerFooter>

--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A58F5A95-5F88-480F-955F-8ECD07BEAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54AABA0-518C-4452-8A20-BBC17F439040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60140381-42AA-4EA5-855B-2A4B78AB457D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="116">
   <si>
     <t>Sekce</t>
   </si>
@@ -140,19 +140,10 @@
     <t>POTŘEBA VITAMÍNŮ B6/B9/B12</t>
   </si>
   <si>
-    <t>MTHFR 677 (rs1801133)</t>
-  </si>
-  <si>
     <t>Normální aktivita enzymu (100%).</t>
   </si>
   <si>
-    <t>MTHFR 1298 (rs1801131)</t>
-  </si>
-  <si>
     <t>Snížená aktivita enzymu (83%).</t>
-  </si>
-  <si>
-    <t>AC</t>
   </si>
   <si>
     <t>Snížená aktivita enzymu (na 67%).</t>
@@ -381,6 +372,30 @@
   </si>
   <si>
     <t>Snížená aktivita enzymu glutathionperoxidázy 1, nižší schopnost zvládat oxidativní stres.</t>
+  </si>
+  <si>
+    <t>CC/AA</t>
+  </si>
+  <si>
+    <t>MTHFR 677 (rs1801133) / MTHFR 1298 (rs1801131)</t>
+  </si>
+  <si>
+    <t>CC/AC</t>
+  </si>
+  <si>
+    <t>CT/AA</t>
+  </si>
+  <si>
+    <t>CC/CC</t>
+  </si>
+  <si>
+    <t>CT/AC</t>
+  </si>
+  <si>
+    <t>TT/AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTHFR 677 (rs1801133) / MTHFR 1298 (rs1801131) </t>
   </si>
 </sst>
 </file>
@@ -779,15 +794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DA0FC-6425-45B8-ADF5-E8C03871A7F1}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="134.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1132,13 +1148,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,10 +1162,10 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -1160,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,10 +1190,10 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
@@ -1188,13 +1204,13 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,10 +1218,10 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -1216,13 +1232,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,13 +1246,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,13 +1274,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,13 +1288,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,150 +1302,150 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
         <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
@@ -1437,13 +1453,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
@@ -1451,13 +1467,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>59</v>
@@ -1465,13 +1481,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
         <v>60</v>
@@ -1479,13 +1495,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
         <v>60</v>
@@ -1493,13 +1509,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
         <v>60</v>
@@ -1507,97 +1523,97 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
         <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
@@ -1605,13 +1621,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
         <v>63</v>
@@ -1619,13 +1635,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
         <v>63</v>
@@ -1633,590 +1649,506 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
         <v>65</v>
-      </c>
-      <c r="D68" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
         <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54AABA0-518C-4452-8A20-BBC17F439040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F689508-A76B-4F97-B24F-84430CA7916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60140381-42AA-4EA5-855B-2A4B78AB457D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="115">
   <si>
     <t>Sekce</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>TT/AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTHFR 677 (rs1801133) / MTHFR 1298 (rs1801131) </t>
   </si>
 </sst>
 </file>
@@ -797,13 +794,13 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="134.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,7 +1215,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
         <v>114</v>

--- a/Varianty.xlsx
+++ b/Varianty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Desktop\projekt_ž\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C09F7-543E-420C-B19A-3630524EFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6F35CE-CB02-45B5-8408-435508AF1157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60140381-42AA-4EA5-855B-2A4B78AB457D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="186">
   <si>
     <t>Sekce</t>
   </si>
@@ -493,13 +493,127 @@
   </si>
   <si>
     <t xml:space="preserve">Normální odbourávání tuků v játrech. Riziko orgánové dysfunkce při nedostatku cholinu ve stravě.  Potřeba cholinu. </t>
+  </si>
+  <si>
+    <t>METABOLISMUS NEUROTRANSMITERŮ – DOPAMIN, SEROTONIN, ADRENALIN, NORADRENALIN, SCHOPNOST ZVLÁDAT STRES</t>
+  </si>
+  <si>
+    <t>COMT Val158Met (rs4680), COMT rs4818</t>
+  </si>
+  <si>
+    <t>Val/Met, CG</t>
+  </si>
+  <si>
+    <t>Val/Met, CC</t>
+  </si>
+  <si>
+    <t>Val/Val, GG</t>
+  </si>
+  <si>
+    <t>Met/Met, CC</t>
+  </si>
+  <si>
+    <t>Val/Val, CG</t>
+  </si>
+  <si>
+    <t>Nižší aktivita COMT. Vyšší hladina dopaminu.</t>
+  </si>
+  <si>
+    <t>Optimální hladina enzymu COMT. Optimální hladina dopaminu.</t>
+  </si>
+  <si>
+    <t>Vyšší hladina enzymu, nižší hladina dopaminu.</t>
+  </si>
+  <si>
+    <t>Nižší hladina enzymu, vyšší hladina dopaminu.</t>
+  </si>
+  <si>
+    <t>MAO-A (rs6323)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Pomalejší MAO, pomalé odbourávání serotoninu a dopaminu.</t>
+  </si>
+  <si>
+    <t>Zvýšená aktivita MAO, rychlejší odbourávání serotoninu a dopaminu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimální aktivita MAO, optimální odbourávání serotoninu a dopaminu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaqIA (rs1800497), -141C Ins/Del (rs1799732) </t>
+  </si>
+  <si>
+    <t>A2/A2, Ins/Ins</t>
+  </si>
+  <si>
+    <t>A2/A2, Ins/Del</t>
+  </si>
+  <si>
+    <t>A2/A2, Del/Del</t>
+  </si>
+  <si>
+    <t>A2/A1, Ins/Ins</t>
+  </si>
+  <si>
+    <t>A2/A1, Ins/Del</t>
+  </si>
+  <si>
+    <t>A2/A1, Del/Del</t>
+  </si>
+  <si>
+    <t>A1/A1, Ins/Ins</t>
+  </si>
+  <si>
+    <t>A1/A1, Ins/Del</t>
+  </si>
+  <si>
+    <t>A1/A1, Del/Del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snížený počet DRD2 receptorů v mozku. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normální počet DRD2 receptorů v mozku. </t>
+  </si>
+  <si>
+    <t>Leidenská mutace FVG1691A</t>
+  </si>
+  <si>
+    <t>Protrombinový gen FII20210A</t>
+  </si>
+  <si>
+    <t>RIZIKO TROMBÓZY (NADMĚRNÁ STRÁŽLIVOST KRVE)</t>
+  </si>
+  <si>
+    <t>Bez mutace, bez zvýšeného rizika trombózy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvýšené riziko trombózy 5 - 10x. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvýšené riziko trombózy 50 - 100x. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvýšené riziko trombózy 2,8x. </t>
+  </si>
+  <si>
+    <t>Zvýšené riziko trombózy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +639,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -608,6 +729,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -652,7 +775,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F41BC869-BD20-42D0-A7C4-98AE7052783B}" name="Tabulka1" displayName="Tabulka1" ref="A1:D82" totalsRowShown="0" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F41BC869-BD20-42D0-A7C4-98AE7052783B}" name="Tabulka1" displayName="Tabulka1" ref="A1:D98" totalsRowShown="0" headerRowBorderDxfId="1">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8AF6FB5A-B380-40E3-ABF8-E0BA5EBF946D}" name="Sekce" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{823B68B0-3B74-4573-972A-B169878868B7}" name="Gen"/>
@@ -980,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44DA0FC-6425-45B8-ADF5-E8C03871A7F1}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,7 +2125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
@@ -2016,129 +2139,479 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
+        <v>149</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" t="s">
-        <v>80</v>
+        <v>149</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" t="s">
         <v>78</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" t="s">
         <v>8</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D107" t="s">
         <v>82</v>
       </c>
     </row>
